--- a/DSA Sheet by Lovebabbar.xlsx
+++ b/DSA Sheet by Lovebabbar.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Attachments\Desktop\DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\OneDrive\Attachments\Desktop\DSA-problems\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1AEBB6-0820-4C38-BC99-514F6F9C1A8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6ED1BD-4A41-4F87-AB49-E4749A5A07B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
+    <workbookView minimized="1" xWindow="5760" yWindow="3276" windowWidth="17280" windowHeight="8964" xr2:uid="{261C335C-1D91-C143-AEEF-19B82073468C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1845,8 +1845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1CDA779-6CF2-8045-9DE0-880424A4EED5}">
   <dimension ref="A1:B481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="103" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B216" sqref="B216"/>
+    <sheetView tabSelected="1" zoomScale="103" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6"/>
